--- a/data/trans_orig/P56S4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P56S4-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7422C60-CD80-461C-A06C-BC3D6AF8D0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28DD3062-E861-4C78-A9D5-8051CAE59E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9FA7ECBE-3833-476A-B3C1-4A81404CF63A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70CD4907-14E3-42E0-A0CD-3540CD02FCD8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7BD3C6-2D73-4994-860C-ACF421DE95E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7F748C-DB17-4BE7-B280-B85D9FD555FB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2674,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF3D03D-CC0F-4B59-9BA9-4CAF9093509E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FF8442-CECA-42B3-B7DB-8E0BF94EACC4}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P56S4-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P56S4-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28DD3062-E861-4C78-A9D5-8051CAE59E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8CB6DD1-E0BA-4A1D-A5C9-D4BD4AD8081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70CD4907-14E3-42E0-A0CD-3540CD02FCD8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{379EB3AF-B41B-405C-AF99-409EAA7B9A76}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Ayuda pública: Otro</t>
@@ -90,13 +90,13 @@
     <t>Un amigo o alguien que no cobra por eso</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7F748C-DB17-4BE7-B280-B85D9FD555FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FD50C-1AD7-453C-B719-4FBB86AD1D8B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2674,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FF8442-CECA-42B3-B7DB-8E0BF94EACC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41EE238-32AC-4182-8790-1CEEB00309CD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
